--- a/UX/20161121_pontos de contato.xlsx
+++ b/UX/20161121_pontos de contato.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Desktop\20161121_UX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600793\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Fase I</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>Proprietária</t>
+  </si>
+  <si>
+    <t>Experiência Ideal</t>
+  </si>
+  <si>
+    <t>Disponibilizar já na home page do sistema a consulta da agenda do dia, com possibilidade de navegação rápida para a realização de novos agendamentos.Além de permitir inclusão de observações/lembretes em cada agendamento.</t>
+  </si>
+  <si>
+    <t>Disponibilizar funcionalidades que permitam a extração dos relatórios a partir dos atendimentos/cobranças realizadas. Com informações organizadas e de fácil entendimento</t>
+  </si>
+  <si>
+    <t>Facilidade no preenchimento do prontuário, com recursos de edição de texto e correção.</t>
+  </si>
+  <si>
+    <t>Facilidade de acesso à funcionalidade de cadastros, com navegação através de atalhos do teclado. Permitir pesquisa com autopreenchimento de campos para obter agilidade na utilização do sistema.</t>
+  </si>
+  <si>
+    <t>Acesso rápido ao prontuário dos pacientes que serão atendidos no dia. Possibilitar a partir da consulta da agenda do dia, selecionar o paciente e a aplicação já exibir seus dados no prontuário com o histórico dos últimos atendimentos.</t>
+  </si>
+  <si>
+    <t>Acesso rápido e fácil ao prontuário do paciente.</t>
   </si>
 </sst>
 </file>
@@ -186,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -248,12 +269,68 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFDCFF4"/>
@@ -1932,12 +2009,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
@@ -2100,23 +2177,39 @@
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
+    <row r="17" spans="1:7" ht="171" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -2124,7 +2217,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -2132,7 +2225,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -2140,7 +2233,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
